--- a/src/main/resources/com/relative/QuskyOro/Matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/Plazos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409892F6-2575-499D-9A49-1C769E3B947A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF43E3A-7C59-4309-B736-6FB9D3310C7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -310,7 +310,7 @@
     <t>MO5</t>
   </si>
   <si>
-    <t>com.relative.QuskyOro.ObjetosNegocio.Cliente,com.relative.QuskyOro.ObjetosNegocio.Opcion,com.relative.QuskyOro.ObjetosNegocio.OpcionesRenovacion,com.relative.QuskyOro.ObjetosNegocio.VariablesNegocio</t>
+    <t>com.relative.QuskiOro.ObjetosNegocio.Cliente,com.relative.QuskiOro.ObjetosNegocio.Opcion,com.relative.QuskiOro.ObjetosNegocio.OpcionesRenovacion,com.relative.QuskiOro.ObjetosNegocio.VariablesNegocio</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
